--- a/medicine/Enfance/Martine_Latulippe/Martine_Latulippe.xlsx
+++ b/medicine/Enfance/Martine_Latulippe/Martine_Latulippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martine Latulippe, née le 1er août 1971, est une auteure de littérature pour la jeunesse[1] québécoise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martine Latulippe, née le 1er août 1971, est une auteure de littérature pour la jeunesse québécoise.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spécialisée en littérature jeunesse, Martine Latulippe est détentrice d'une maîtrise en littérature comparée à l'université Laval[1].
-Auteure de plus de 60 livres pour le jeune public, elle travaille également, à titre de directrice littéraire, à la revue Alibis, en plus de collaborer régulièrement avec différentes maisons d'édition en tant que réviseure linguistique. À titre d'auteure, elle publie notamment la série jeunesse La Bande des Quatre, Julie, Marie-P. ainsi que plusieurs livres pour adolescents (Le Cri, Trahie, À fleur de peau, etc.)[2],[3],[4]. Depuis 1999, elle anime régulièrement des ateliers et des conférences en milieu scolaire[1],[5],[6].
-Récipiendaire de nombreux prix littéraire tels que le Prix Hackmatack, le Prix des abonnés des bibliothèques de Québec ainsi que le Prix jeunesse du Salon du livre de Québec, Martine Latulippe participe également à des conférences partout au Québec, au Canada ainsi qu'en Suisse[7],[2].
-Martine Latulippe est présidente d'honneur du Salon du livre de l'Île-du-Prince-Édouard (2019), invitée d'honneur au festival La crue des mots (2018), invitée d'honneur jeunesse du Salon international du livre de Québec (2008) ainsi qu'invitée d'honneur jeunesse du Salon du livre de Trois-Rivières (2006). On rend également hommage à sa carrière lors du Salon international du livre de Québec (2009)[7],[8],[9],[10],[11].
-Martine Latulippe est membre de l’Union des écrivaines et des écrivains québécois[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialisée en littérature jeunesse, Martine Latulippe est détentrice d'une maîtrise en littérature comparée à l'université Laval.
+Auteure de plus de 60 livres pour le jeune public, elle travaille également, à titre de directrice littéraire, à la revue Alibis, en plus de collaborer régulièrement avec différentes maisons d'édition en tant que réviseure linguistique. À titre d'auteure, elle publie notamment la série jeunesse La Bande des Quatre, Julie, Marie-P. ainsi que plusieurs livres pour adolescents (Le Cri, Trahie, À fleur de peau, etc.). Depuis 1999, elle anime régulièrement des ateliers et des conférences en milieu scolaire.
+Récipiendaire de nombreux prix littéraire tels que le Prix Hackmatack, le Prix des abonnés des bibliothèques de Québec ainsi que le Prix jeunesse du Salon du livre de Québec, Martine Latulippe participe également à des conférences partout au Québec, au Canada ainsi qu'en Suisse,.
+Martine Latulippe est présidente d'honneur du Salon du livre de l'Île-du-Prince-Édouard (2019), invitée d'honneur au festival La crue des mots (2018), invitée d'honneur jeunesse du Salon international du livre de Québec (2008) ainsi qu'invitée d'honneur jeunesse du Salon du livre de Trois-Rivières (2006). On rend également hommage à sa carrière lors du Salon international du livre de Québec (2009).
+Martine Latulippe est membre de l’Union des écrivaines et des écrivains québécois.
 </t>
         </is>
       </c>
@@ -548,12 +562,85 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman
-Cami, Québec, Arion, 1996, 144 p.  (ISBN 2-921493-21-7)
-Nouvelles
-Les faits divers n'existent pas, Montréal, Éditions Druide, 2013, 138 p.  (ISBN 9782897110611)
-Littérature jeunesse
-Simon, l'espion amoureux, illustrations de Daniel Sylvestre, Saint-Lambert, Dominique et compagnie, Coll. Libellule, 1999, 86 p.  (ISBN 2-89512-037-4)
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cami, Québec, Arion, 1996, 144 p.  (ISBN 2-921493-21-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Martine_Latulippe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_Latulippe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les faits divers n'existent pas, Montréal, Éditions Druide, 2013, 138 p.  (ISBN 9782897110611)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Martine_Latulippe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_Latulippe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Simon, l'espion amoureux, illustrations de Daniel Sylvestre, Saint-Lambert, Dominique et compagnie, Coll. Libellule, 1999, 86 p.  (ISBN 2-89512-037-4)
 Louna et le dernier chevalier, illustrations de Pascaline Naninck, Québec, Le Loup de gouttière, Coll. Les petits loups, 2000, 67 p.  (ISBN 2-89529-029-6)
 La mémoire de mademoiselle Morgane, illustrations de Paule Thibault, Saint-Lambert, Dominique et compagnie, Coll. Roman vert, 2001, 76 p.  (ISBN 2-89512-224-5)
 À fleur de peau, Montréal, Québec Amérique jeunesse, Coll. Titan jeunesse, 2001, 132 p.  (ISBN 2764401124, 9782764401125 et 9782764416501)
@@ -669,9 +756,43 @@
 Tom et Lali, illustrations de Fabrice Boulanger, Québec, Éditions FouLire, n.p.  (ISBN 9782895914648)(Vol. 1) et  (ISBN 9782895914655)(Vol. 2)
 Mission : non aux étiquettes!, illustrations de Phil Poulin, Saint-Lambert, Dominique et compagnie, Coll. J'apprends la vie, 2021, n.p.  (ISBN 9782898205286)
 Monstres et autres créatures du Québec, illustrations, Fabrice Boulanger, Montréal, Éditions et diffusions Auzou Ltée, 2021, n.p.  (ISBN 9782898241284)
-Le mystère de la Roche pleureuse, illustrations de Catherine Petit, Montréal, Auzou, Coll. Les grands classiques, 2021, 25 p.  (ISBN 9782898240218)
-Collaborations
-L'univers de Marie-Soleil, en collaboration avec Joanne Ouellet, Montréal, Québec Amérique, 2014, 31 p.  (ISBN 9782764421215)
+Le mystère de la Roche pleureuse, illustrations de Catherine Petit, Montréal, Auzou, Coll. Les grands classiques, 2021, 25 p.  (ISBN 9782898240218)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Martine_Latulippe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_Latulippe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'univers de Marie-Soleil, en collaboration avec Joanne Ouellet, Montréal, Québec Amérique, 2014, 31 p.  (ISBN 9782764421215)
 La bande des Quatre, Alain M. Bergeron, François Gravel, Martine Latulippe et Johanne Mercier, Montréal, Éditions FouLire, 2015, n.p.  (ISBN 9782895912408) (t. 1),  (ISBN 9782895912682) (t. 2),  (ISBN 9782895912774) (t. 3),  (ISBN 9782895913047) (t. 4) et  (ISBN 9782895913344) (t. 5)
 Une plume pour Pénélope, en collaboration avec Julie St-Onge Drouin, Québec, Éditions FouLire, Coll. Mini Ketto, 2015, 45 p.  (ISBN 9782895912347)
 Les nuits de Fannie, en collaboration avec Julie St-Onge Drouin, Québec, Éditions FouLire, Coll. Mini Ketto, 2016, 45 p.  (ISBN 9782895912644)
@@ -687,49 +808,51 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Martine_Latulippe</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Martine_Latulippe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2002 - Récipiendaire : Sélection Communication Jeunesse (pour À fleur de peau)[12]
-2002 - Finaliste : Prix Hackmatack (pour La mémoire de mademoiselle Morgan)[13]
-2002 - Finaliste : Prix Odyssée (pour La mémoire de mademoiselle Morgan)[14]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2002 - Récipiendaire : Sélection Communication Jeunesse (pour À fleur de peau)
+2002 - Finaliste : Prix Hackmatack (pour La mémoire de mademoiselle Morgan)
+2002 - Finaliste : Prix Odyssée (pour La mémoire de mademoiselle Morgan)
 2005 - Finaliste : Prix des abonnés des bibliothèques de Québec
 2005 - Finaliste : Prix Hackmatack
 2006 - Finaliste : Prix des abonnés des bibliothèques de Québec
-2006 - Palmarès Sélection Communication Jeunesse [2]
+2006 - Palmarès Sélection Communication Jeunesse 
 2007 - Finaliste : Prix Hackmatack
 2007 - Récipiendaire : Prix jeunesse du Salon du livre de Québec
 2008 - Finaliste : Prix jeunesse du Salon du livre de Québec
-2009 - Récipiendaire : Prix jeunesse du Salon du livre de Québec (pour Lorian Loubier, Vive les mariés!)[15]
-2010 - Récipiendaire : Prix Magazine Enfants Québec album de l'année (pour Ce qui arriva à Chloé et Mélina un jeudi après-midi)[15]
+2009 - Récipiendaire : Prix jeunesse du Salon du livre de Québec (pour Lorian Loubier, Vive les mariés!)
+2010 - Récipiendaire : Prix Magazine Enfants Québec album de l'année (pour Ce qui arriva à Chloé et Mélina un jeudi après-midi)
 2011 - Finaliste : Prix jeunesse du Salon du livre de Québec
-2012 - Finaliste : Prix de la nouvelle Radio-Canada (pour La maison blonde)[16]
-2013 - Récipiendaire : Prix jeunesse Salon du livre de Québec (pour Le voisin, Rosa, les poissons et moi)[17],[18]
-2015 - Finaliste : Prix de la nouvelle Radio-Canada (pour Le prix du désir)[19]
-2021 - Finaliste : Prix de création littéraire de la Ville de Québec et du Salon international du livre de Québec (pour Ça leur apprendra à sortir la nuit)[20]</t>
+2012 - Finaliste : Prix de la nouvelle Radio-Canada (pour La maison blonde)
+2013 - Récipiendaire : Prix jeunesse Salon du livre de Québec (pour Le voisin, Rosa, les poissons et moi),
+2015 - Finaliste : Prix de la nouvelle Radio-Canada (pour Le prix du désir)
+2021 - Finaliste : Prix de création littéraire de la Ville de Québec et du Salon international du livre de Québec (pour Ça leur apprendra à sortir la nuit)</t>
         </is>
       </c>
     </row>
